--- a/src/excels/meningeal/updates/output_excel.xlsx
+++ b/src/excels/meningeal/updates/output_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT7"/>
+  <dimension ref="A1:BW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MeV.Vascular.0</t>
+          <t>MeV.Endothelial.0</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -466,330 +466,345 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>MeV.1.4.12</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pts</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pts of origin</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>MeV.1.4.13</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.1.4.15</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.Endothelial.3</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MeV.1.4.2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.1.4.20</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.Endothelial_Injury.4</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Injury.4_pts</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Injury.4_pts of origin</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.Immune_doublets.0</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>doublets.0_pts</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>doublets.0_pts of origin</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.1.4.4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.1.4.21</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.Endothelial.2</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.1.4.4</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.1.4.6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.Vascular.2</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.1.4.7</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.1.4.6</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.Low_Quality.0</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Quality.0_pts</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Quality.0_pts of origin</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.2.1</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.1.4.7</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.2.8</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.1.4.8</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.3.17</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.2.1</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.Proliferative_Fibr.0</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Fibr.0_pts</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Fibr.0_pts of origin</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.Pericytes.0</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.2.8</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.VLMC.1</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.3.17</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.Endothelial.1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.Proliferative_Fibr.0</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Fibr.0_pts</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Fibr.0_pts of origin</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.Pericytes.0</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.Epithelial_ECad.0</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>ECad.0_pts</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>ECad.0_pts of origin</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.Fib_CD34.0</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>CD34.0_pts</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>CD34.0_pts of origin</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.SMC.0</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.4.12</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.4.34</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.Vascular.1</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>MeV.VLMC.0</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>pts</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>pts of origin</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.4.26</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>pts</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>pts of origin</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.4.30</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>pts</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>pts of origin</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.SMC.0</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>pts</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>pts of origin</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.4.34</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>pts</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>pts of origin</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>MeV.4.4</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>pts</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>pts of origin</t>
         </is>
@@ -824,286 +839,299 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>C6</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Gna14</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>0.5</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Slco1a4</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>0.68</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>Trpm3</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>Sorbs2</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>Myo1f</t>
         </is>
       </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>0.57</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Trpm3</t>
         </is>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>1</v>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Slco1c1</t>
         </is>
       </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
         <v>0.68</v>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Trpm3</t>
         </is>
       </c>
-      <c r="AC2" t="n">
+      <c r="AF2" t="n">
         <v>0.99</v>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>Trpm3</t>
         </is>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>Ftl1</t>
         </is>
       </c>
-      <c r="AI2" t="n">
+      <c r="AL2" t="n">
         <v>0.38</v>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>Ccbe1</t>
         </is>
       </c>
-      <c r="AL2" t="n">
+      <c r="AO2" t="n">
         <v>0.49</v>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>0.3, 0.4</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>Tmem132e</t>
         </is>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>0.34</v>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>Abca8a</t>
         </is>
       </c>
-      <c r="AR2" t="n">
+      <c r="AU2" t="n">
         <v>0.72</v>
       </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
         <is>
           <t>Depdc1a</t>
         </is>
       </c>
-      <c r="AU2" t="n">
+      <c r="AX2" t="n">
         <v>0.57</v>
       </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
         <is>
           <t>Abcc9</t>
         </is>
       </c>
-      <c r="AX2" t="n">
+      <c r="BA2" t="n">
         <v>0.78</v>
       </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
         <is>
           <t>Myoc</t>
         </is>
       </c>
-      <c r="BA2" t="n">
+      <c r="BD2" t="n">
         <v>0.33</v>
       </c>
-      <c r="BB2" t="inlineStr">
+      <c r="BE2" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr">
+      <c r="BF2" t="inlineStr">
         <is>
           <t>Sema3g</t>
         </is>
       </c>
-      <c r="BD2" t="n">
+      <c r="BG2" t="n">
         <v>0.36</v>
       </c>
-      <c r="BE2" t="inlineStr">
+      <c r="BH2" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
+      <c r="BI2" t="inlineStr">
         <is>
           <t>Dapl1</t>
         </is>
       </c>
-      <c r="BG2" t="n">
+      <c r="BJ2" t="n">
         <v>0.65</v>
       </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
         <is>
           <t>Pi16</t>
         </is>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BM2" t="n">
         <v>0.61</v>
       </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
         <is>
           <t>Myh11</t>
         </is>
       </c>
-      <c r="BM2" t="n">
+      <c r="BP2" t="n">
         <v>0.84</v>
       </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BO2" t="inlineStr">
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
         <is>
           <t>Mamdc2</t>
         </is>
       </c>
-      <c r="BP2" t="n">
+      <c r="BS2" t="n">
         <v>0.53</v>
       </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
         <is>
           <t>Col25a1</t>
         </is>
       </c>
-      <c r="BS2" t="n">
+      <c r="BV2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="BT2" t="inlineStr">
+      <c r="BW2" t="inlineStr">
         <is>
           <t>0.3, 0.4, 0.5</t>
         </is>
@@ -1138,7 +1166,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Itgb4</t>
+          <t>Kng2</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1151,273 +1179,286 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>Itgb4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>Slco1c1</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>0.32</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Cntnap5b</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>0.36</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Frmd5</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>0.78</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>Runx1</t>
         </is>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>0.61</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Slc6a20b</t>
         </is>
       </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>0.49</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>0.3, 0.4</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>Slco1a4</t>
         </is>
       </c>
-      <c r="Z3" t="n">
+      <c r="AC3" t="n">
         <v>0.95</v>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Il31ra</t>
         </is>
       </c>
-      <c r="AC3" t="n">
+      <c r="AF3" t="n">
         <v>0.7</v>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>Pla1a</t>
-        </is>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.31</v>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Igfbp3</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>Rpl18a</t>
         </is>
       </c>
-      <c r="AI3" t="n">
+      <c r="AL3" t="n">
         <v>0.4</v>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>0.3, 0.4</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Grem2</t>
-        </is>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>Slc7a11</t>
+        </is>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Igf1</t>
+        </is>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>Lama1</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Top2a</t>
+        </is>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>Slc38a11</t>
+        </is>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>Gm973</t>
+        </is>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Bmx</t>
+        </is>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>Cubn</t>
+        </is>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>Angptl1</t>
+        </is>
+      </c>
+      <c r="BM3" t="n">
         <v>0.35</v>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="BN3" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>Igf1</t>
-        </is>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>Lama1</t>
-        </is>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>Top2a</t>
-        </is>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>Slc38a11</t>
-        </is>
-      </c>
-      <c r="AX3" t="n">
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>Myom1</t>
+        </is>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>Abca8a</t>
+        </is>
+      </c>
+      <c r="BS3" t="n">
         <v>0.75</v>
       </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>Gm973</t>
-        </is>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>Bmx</t>
-        </is>
-      </c>
-      <c r="BD3" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>Cubn</t>
-        </is>
-      </c>
-      <c r="BG3" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>Angptl1</t>
-        </is>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>Myom1</t>
-        </is>
-      </c>
-      <c r="BM3" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>Abca8a</t>
-        </is>
-      </c>
-      <c r="BP3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BR3" t="inlineStr">
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
         <is>
           <t>Slc26a7</t>
         </is>
       </c>
-      <c r="BS3" t="n">
+      <c r="BV3" t="n">
         <v>0.84</v>
       </c>
-      <c r="BT3" t="inlineStr">
+      <c r="BW3" t="inlineStr">
         <is>
           <t>0.3, 0.4, 0.5</t>
         </is>
@@ -1452,286 +1493,299 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Ror2</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>Ptch1</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Spock2</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>0.31</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Gria3</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>0.41</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>0.3, 0.4</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Ptprg</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="T4" t="n">
         <v>0.84</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>Dock2</t>
         </is>
       </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
         <v>0.65</v>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Slc22a6</t>
         </is>
       </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>0.42</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>0.3, 0.4</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>Slc7a5</t>
         </is>
       </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
         <v>0.44</v>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>0.3, 0.4</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>Dcdc2a</t>
         </is>
       </c>
-      <c r="AC4" t="n">
+      <c r="AF4" t="n">
         <v>0.41</v>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>0.3, 0.4</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Igfbp3</t>
-        </is>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Pla1a</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>Rpl19</t>
         </is>
       </c>
-      <c r="AI4" t="n">
+      <c r="AL4" t="n">
         <v>0.37</v>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Slc7a11</t>
-        </is>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Grem2</t>
+        </is>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Ltbp1</t>
+        </is>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>Col15a1</t>
+        </is>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Cenpf</t>
+        </is>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>Gm12002</t>
+        </is>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>Prps2</t>
+        </is>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Nos1</t>
+        </is>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>Prg4</t>
+        </is>
+      </c>
+      <c r="BJ4" t="n">
         <v>0.92</v>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>Ltbp1</t>
-        </is>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Col15a1</t>
-        </is>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>Cenpf</t>
-        </is>
-      </c>
-      <c r="AU4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>Gm12002</t>
-        </is>
-      </c>
-      <c r="AX4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>Prps2</t>
-        </is>
-      </c>
-      <c r="BA4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>Nos1</t>
-        </is>
-      </c>
-      <c r="BD4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>Prg4</t>
-        </is>
-      </c>
-      <c r="BG4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
         <is>
           <t>Nox4</t>
         </is>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BM4" t="n">
         <v>0.59</v>
       </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
         <is>
           <t>Jph2</t>
         </is>
       </c>
-      <c r="BM4" t="n">
+      <c r="BP4" t="n">
         <v>0.57</v>
       </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BO4" t="inlineStr">
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
         <is>
           <t>Ror2</t>
         </is>
       </c>
-      <c r="BP4" t="n">
+      <c r="BS4" t="n">
         <v>0.53</v>
       </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BR4" t="inlineStr">
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
         <is>
           <t>Slc47a1</t>
         </is>
       </c>
-      <c r="BS4" t="n">
+      <c r="BV4" t="n">
         <v>0.97</v>
       </c>
-      <c r="BT4" t="inlineStr">
+      <c r="BW4" t="inlineStr">
         <is>
           <t>0.3, 0.4, 0.5</t>
         </is>
@@ -1766,181 +1820,181 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ror2</t>
+          <t>Col15a1</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Ngf</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>0.3, 0.4</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Adgrl4</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>0.53</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>Kirrel3</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>0.62</v>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>Cmss1</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="T5" t="n">
         <v>0.78</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>Lyn</t>
         </is>
       </c>
-      <c r="T5" t="n">
+      <c r="W5" t="n">
         <v>0.74</v>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>Ranbp3l</t>
         </is>
       </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>1</v>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Nostrin</t>
-        </is>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.41</v>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Tfrc</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Cyp26b1</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
           <t>0.3, 0.4</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Cyp26b1</t>
-        </is>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>Slc7a11</t>
-        </is>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
       <c r="AH5" t="inlineStr">
         <is>
+          <t>Ranbp3l</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
           <t>Rpl41</t>
         </is>
       </c>
-      <c r="AI5" t="n">
+      <c r="AL5" t="n">
         <v>0.51</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
         <is>
           <t>Aox3</t>
         </is>
       </c>
-      <c r="AL5" t="n">
+      <c r="AO5" t="n">
         <v>0.37</v>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>Grem2</t>
         </is>
       </c>
-      <c r="AO5" t="n">
+      <c r="AR5" t="n">
         <v>0.51</v>
       </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>Cemip</t>
         </is>
       </c>
-      <c r="AR5" t="n">
+      <c r="AU5" t="n">
         <v>0.83</v>
       </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>Tpx2</t>
-        </is>
-      </c>
-      <c r="AU5" t="n">
-        <v>0.62</v>
-      </c>
       <c r="AV5" t="inlineStr">
         <is>
           <t>0.3, 0.4, 0.5</t>
@@ -1948,104 +2002,117 @@
       </c>
       <c r="AW5" t="inlineStr">
         <is>
+          <t>Knl1</t>
+        </is>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
           <t>Notch3</t>
         </is>
       </c>
-      <c r="AX5" t="n">
+      <c r="BA5" t="n">
         <v>0.88</v>
       </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
         <is>
           <t>Slc47a1</t>
         </is>
       </c>
-      <c r="BA5" t="n">
+      <c r="BD5" t="n">
         <v>0.99</v>
       </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
         <is>
           <t>Prdm16</t>
         </is>
       </c>
-      <c r="BD5" t="n">
+      <c r="BG5" t="n">
         <v>0.7</v>
       </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
         <is>
           <t>Slc7a14</t>
         </is>
       </c>
-      <c r="BG5" t="n">
+      <c r="BJ5" t="n">
         <v>0.93</v>
       </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
         <is>
           <t>Col14a1</t>
         </is>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BM5" t="n">
         <v>0.5</v>
       </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
         <is>
           <t>Acta2</t>
         </is>
       </c>
-      <c r="BM5" t="n">
+      <c r="BP5" t="n">
         <v>0.73</v>
       </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
         <is>
           <t>Matn2</t>
         </is>
       </c>
-      <c r="BP5" t="n">
+      <c r="BS5" t="n">
         <v>0.53</v>
       </c>
-      <c r="BQ5" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BR5" t="inlineStr">
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
         <is>
           <t>Slc4a10</t>
         </is>
       </c>
-      <c r="BS5" t="n">
+      <c r="BV5" t="n">
         <v>1</v>
       </c>
-      <c r="BT5" t="inlineStr">
+      <c r="BW5" t="inlineStr">
         <is>
           <t>0.3, 0.4, 0.5</t>
         </is>
@@ -2080,286 +2147,299 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ngf</t>
+          <t>Fap</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Ebf2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Tmtc2</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Lsamp</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Gphn</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Ppm1h</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Ppp1r1a</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Nostrin</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Col22a1</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Slc7a11</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Rps23</t>
+        </is>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>Tmem132c</t>
+        </is>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Svep1</t>
+        </is>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>Tbx18</t>
+        </is>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Hmmr</t>
+        </is>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>Tbx3os1</t>
+        </is>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>Tbx15</t>
+        </is>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>Lama3</t>
+        </is>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>Dpp4</t>
+        </is>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>Gfpt2</t>
+        </is>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>Pdlim3</t>
+        </is>
+      </c>
+      <c r="BP6" t="n">
         <v>0.43</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="BQ6" t="inlineStr">
         <is>
           <t>0.3, 0.4</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Tmtc2</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Lsamp</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Gphn</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Ppm1h</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Ppp1r1a</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Tfrc</t>
-        </is>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Scn7a</t>
-        </is>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>Ranbp3l</t>
-        </is>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Rpl26</t>
-        </is>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Tmem132c</t>
-        </is>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>Svep1</t>
-        </is>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>Tbx18</t>
-        </is>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>Knl1</t>
-        </is>
-      </c>
-      <c r="AU6" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>Tbx3os1</t>
-        </is>
-      </c>
-      <c r="AX6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>Tbx15</t>
-        </is>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>Lama3</t>
-        </is>
-      </c>
-      <c r="BD6" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>Dpp4</t>
-        </is>
-      </c>
-      <c r="BG6" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>Gfpt2</t>
-        </is>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="BL6" t="inlineStr">
-        <is>
-          <t>Pdlim3</t>
-        </is>
-      </c>
-      <c r="BM6" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4</t>
-        </is>
-      </c>
-      <c r="BO6" t="inlineStr">
-        <is>
-          <t>Col15a1</t>
-        </is>
-      </c>
-      <c r="BP6" t="n">
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>Vit</t>
+        </is>
+      </c>
+      <c r="BS6" t="n">
         <v>0.53</v>
       </c>
-      <c r="BQ6" t="inlineStr">
-        <is>
-          <t>0.3, 0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BR6" t="inlineStr">
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>0.3, 0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
         <is>
           <t>Slc47a2</t>
         </is>
       </c>
-      <c r="BS6" t="n">
+      <c r="BV6" t="n">
         <v>0.63</v>
       </c>
-      <c r="BT6" t="inlineStr">
+      <c r="BW6" t="inlineStr">
         <is>
           <t>0.3, 0.4, 0.5</t>
         </is>
@@ -2394,230 +2474,243 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ebf2</t>
+          <t>Runx1</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>0.4, 0.5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>9130410C08Rik</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Lef1</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>0.46</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Kcnip4</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>0.87</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>0.4, 0.5</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>Aifm3</t>
         </is>
       </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>0.71</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>Prom1</t>
         </is>
       </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
         <v>0.43</v>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Col22a1</t>
-        </is>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Igf1</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Medag</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Rplp1</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AM7" t="inlineStr">
         <is>
           <t>0.4, 0.5</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>Medag</t>
-        </is>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>Lama1</t>
+        </is>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP7" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Rplp1</t>
-        </is>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>Igfbp2</t>
+        </is>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS7" t="inlineStr">
         <is>
           <t>0.4, 0.5</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Lama1</t>
-        </is>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>Col13a1</t>
+        </is>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AV7" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>Igfbp2</t>
-        </is>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>Trpc3</t>
+        </is>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BB7" t="inlineStr">
         <is>
           <t>0.4, 0.5</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>Col13a1</t>
-        </is>
-      </c>
-      <c r="AR7" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>Trpc3</t>
-        </is>
-      </c>
-      <c r="AX7" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AY7" t="inlineStr">
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>Tspan11</t>
+        </is>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="BE7" t="inlineStr">
         <is>
           <t>0.4, 0.5</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>Tspan11</t>
-        </is>
-      </c>
-      <c r="BA7" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="BB7" t="inlineStr">
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>Vegfc</t>
+        </is>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BH7" t="inlineStr">
         <is>
           <t>0.4, 0.5</t>
         </is>
       </c>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>Vegfc</t>
-        </is>
-      </c>
-      <c r="BD7" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="BE7" t="inlineStr">
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>Rspo2</t>
+        </is>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BN7" t="inlineStr">
         <is>
           <t>0.4, 0.5</t>
         </is>
       </c>
-      <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>Fndc1</t>
-        </is>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>0.4, 0.5</t>
-        </is>
-      </c>
-      <c r="BL7" t="inlineStr">
+      <c r="BO7" t="inlineStr">
         <is>
           <t>Myocd</t>
         </is>
       </c>
-      <c r="BM7" t="n">
+      <c r="BP7" t="n">
         <v>0.53</v>
       </c>
-      <c r="BN7" t="inlineStr">
+      <c r="BQ7" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
